--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.4 .xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.4 .xlsx
@@ -18,12 +18,14 @@
     <sheet name="Availability" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Distribution" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Scoring" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Share Of Empty" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="259">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1820,23 +1822,23 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.7125506072875"/>
   </cols>
@@ -3462,7 +3464,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3842,6 +3844,130 @@
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="16.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="47" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3868,12 +3994,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
@@ -3985,28 +4111,28 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4743,17 +4869,17 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -4876,30 +5002,30 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="59.2348178137652"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +5038,7 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="46" t="s">
         <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4934,16 +5060,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>10</v>
@@ -5344,18 +5470,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5525,15 +5651,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
@@ -5844,17 +5970,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="38.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="50.1336032388664"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.4 .xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.4 .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,6 +26,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="259">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -997,163 +999,163 @@
     <t xml:space="preserve">32-34</t>
   </si>
   <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 2 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cámara fría y Enfriador CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador CC Categorizador, Enfriador CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per bay SOS Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cámara fría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 1 bay with 100% Coke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño del Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterate by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriador CC Categorizador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachada (Cuadro Básico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all questions are answered "Si" then pass. If not all questions are answered yes, proceed to option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all questions are answered "No" then pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_additional_attribute_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plataforma KO Rack,Plataforma KO Anaquel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano,Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exteriores,POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachada (Cuadro Básico), Totem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros,Plataformas,Anaquel,POS,Exteriores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comidas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico:1.5,Mediano:.75,Grande:.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano:1,Grande:.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment </t>
+  </si>
+  <si>
     <t xml:space="preserve">Empty</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 2 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cámara fría y Enfriador CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador CC Categorizador, Enfriador CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per bay SOS Targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores Otros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cámara fría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 1 bay with 100% Coke products (excluding empty, include Other, POSM and SKU) and the bay(door) have at least 25 facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaño del Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iterate by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador CC Categorizador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template </t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant_questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachada (Cuadro Básico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If all questions are answered "Si" then pass. If not all questions are answered yes, proceed to option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If all questions are answered "No" then pass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_additional_attribute_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plataforma KO Rack,Plataforma KO Anaquel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano,Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exteriores,POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachada (Cuadro Básico), Totem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriadores CC, Enfriadores Otros,Plataformas,Anaquel,POS,Exteriores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comidas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico:1.5,Mediano:.75,Grande:.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Comidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano:1,Grande:.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene los empaques mandatorios de portafolio-Plat. Dinámicas 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment </t>
   </si>
 </sst>
 </file>
@@ -1830,15 +1832,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.7125506072875"/>
   </cols>
@@ -3464,7 +3466,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3500,13 +3502,13 @@
         <v>185</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>186</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -3515,7 +3517,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3863,14 +3865,14 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="16.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,7 +3948,7 @@
         <v>171</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="49"/>
@@ -3960,7 +3962,7 @@
         <v>192</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="O2" s="53" t="s">
         <v>43</v>
@@ -3994,12 +3996,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
@@ -4109,30 +4111,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="59.2348178137652"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4482,59 +4484,57 @@
       </c>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="n">
-        <v>31</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="39" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>190</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="49"/>
-      <c r="L8" s="56" t="s">
-        <v>194</v>
-      </c>
+      <c r="L8" s="39"/>
       <c r="M8" s="53" t="s">
         <v>191</v>
       </c>
       <c r="N8" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="O8" s="54" t="s">
-        <v>207</v>
+      <c r="O8" s="54" t="n">
+        <v>100</v>
       </c>
       <c r="P8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="53"/>
+    </row>
+    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>138</v>
@@ -4574,12 +4574,12 @@
       </c>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>138</v>
@@ -4619,51 +4619,7 @@
       </c>
       <c r="Q10" s="53"/>
     </row>
-    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="n">
-        <v>54</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="O11" s="54" t="n">
-        <v>100</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="53"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4723,13 +4679,13 @@
         <v>185</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>186</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -4738,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4713,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>39</v>
@@ -4783,7 +4739,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>72</v>
@@ -4808,7 +4764,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>72</v>
@@ -4833,7 +4789,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>72</v>
@@ -4869,17 +4825,17 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -4908,7 +4864,7 @@
         <v>165</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4932,7 +4888,7 @@
         <v>187</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -4954,22 +4910,22 @@
         <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="I2" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>189</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>178</v>
@@ -5008,17 +4964,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
@@ -5042,19 +4998,19 @@
         <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>196</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -5078,7 +5034,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5102,7 +5058,7 @@
         <v>54</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>197</v>
@@ -5110,10 +5066,10 @@
       <c r="J2" s="62"/>
       <c r="K2" s="25"/>
       <c r="L2" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>20</v>
@@ -5137,10 +5093,10 @@
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>197</v>
@@ -5148,10 +5104,10 @@
       <c r="J3" s="62"/>
       <c r="K3" s="25"/>
       <c r="L3" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>20</v>
@@ -5175,21 +5131,21 @@
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="62" t="s">
         <v>227</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>229</v>
       </c>
       <c r="J4" s="62"/>
       <c r="K4" s="25"/>
       <c r="L4" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>20</v>
@@ -5213,21 +5169,21 @@
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="62" t="s">
         <v>227</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>229</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="25"/>
       <c r="L5" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>20</v>
@@ -5251,21 +5207,21 @@
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="25"/>
       <c r="L6" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>20</v>
@@ -5289,21 +5245,21 @@
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H7" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="62" t="s">
         <v>228</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>230</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="25"/>
       <c r="L7" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>20</v>
@@ -5327,7 +5283,7 @@
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="62" t="s">
@@ -5336,10 +5292,10 @@
       <c r="J8" s="62"/>
       <c r="K8" s="20"/>
       <c r="L8" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>20</v>
@@ -5360,7 +5316,7 @@
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>69</v>
@@ -5369,10 +5325,10 @@
         <v>196</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>20</v>
@@ -5392,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>69</v>
@@ -5403,10 +5359,10 @@
       </c>
       <c r="J10" s="68"/>
       <c r="L10" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>20</v>
@@ -5426,7 +5382,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>69</v>
@@ -5437,10 +5393,10 @@
       </c>
       <c r="J11" s="68"/>
       <c r="L11" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>20</v>
@@ -5470,18 +5426,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5503,13 +5459,13 @@
         <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -5518,19 +5474,19 @@
         <v>185</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>186</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,16 +5503,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="70" t="s">
         <v>236</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>238</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="71"/>
@@ -5578,16 +5534,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="71"/>
@@ -5609,16 +5565,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="71"/>
@@ -5651,15 +5607,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
@@ -5683,16 +5639,16 @@
         <v>165</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G1" s="72" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>7</v>
@@ -5701,13 +5657,13 @@
         <v>185</v>
       </c>
       <c r="L1" s="72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M1" s="72" t="s">
         <v>186</v>
       </c>
       <c r="N1" s="72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O1" s="72" t="s">
         <v>10</v>
@@ -5716,7 +5672,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,7 +5725,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G3" s="56" t="s">
         <v>128</v>
@@ -5778,7 +5734,7 @@
         <v>176</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="39" t="s">
@@ -5786,7 +5742,7 @@
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
@@ -5810,16 +5766,16 @@
         <v>121</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G4" s="56" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
@@ -5847,16 +5803,16 @@
         <v>121</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>128</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
@@ -5881,17 +5837,17 @@
         <v>119</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>161</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="53"/>
@@ -5920,17 +5876,17 @@
         <v>119</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>161</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="53"/>
@@ -5970,17 +5926,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="78" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="38.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="78" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="78" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="78" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="78" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="78" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="78" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="78" width="50.9878542510121"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="78" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="78" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="78" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="78" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="78" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="78" width="11.6761133603239"/>
@@ -6010,13 +5966,13 @@
         <v>165</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I1" s="72" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K1" s="72" t="s">
         <v>7</v>
@@ -6025,13 +5981,13 @@
         <v>185</v>
       </c>
       <c r="M1" s="72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N1" s="72" t="s">
         <v>186</v>
       </c>
       <c r="O1" s="72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P1" s="72" t="s">
         <v>10</v>
@@ -6040,7 +5996,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,7 +6032,7 @@
       </c>
       <c r="M2" s="79"/>
       <c r="N2" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O2" s="79"/>
       <c r="P2" s="79" t="s">
@@ -6120,7 +6076,7 @@
       </c>
       <c r="M3" s="79"/>
       <c r="N3" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O3" s="79"/>
       <c r="P3" s="79" t="s">
@@ -6151,7 +6107,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="39" t="s">
@@ -6164,7 +6120,7 @@
       </c>
       <c r="M4" s="79"/>
       <c r="N4" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O4" s="79"/>
       <c r="P4" s="79" t="s">
@@ -6195,7 +6151,7 @@
         <v>105</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="39" t="s">
@@ -6208,7 +6164,7 @@
       </c>
       <c r="M5" s="79"/>
       <c r="N5" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O5" s="79"/>
       <c r="P5" s="79" t="s">
@@ -6239,7 +6195,7 @@
         <v>105</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="39" t="s">
@@ -6252,7 +6208,7 @@
       </c>
       <c r="M6" s="79"/>
       <c r="N6" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O6" s="79"/>
       <c r="P6" s="79" t="s">
@@ -6268,10 +6224,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>130</v>
@@ -6308,13 +6264,13 @@
         <v>43</v>
       </c>
       <c r="B8" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="81" t="s">
         <v>253</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>255</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>134</v>
@@ -6338,7 +6294,7 @@
       </c>
       <c r="M8" s="82"/>
       <c r="N8" s="56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O8" s="80"/>
       <c r="P8" s="80"/>
@@ -6355,10 +6311,10 @@
         <v>141</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>134</v>
@@ -6368,13 +6324,13 @@
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>132</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="80"/>
@@ -6395,7 +6351,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>146</v>
@@ -6414,7 +6370,7 @@
         <v>135</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="80" t="s">
@@ -6422,7 +6378,7 @@
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
@@ -6452,13 +6408,13 @@
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>132</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80"/>
@@ -6498,7 +6454,7 @@
         <v>135</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80" t="s">
@@ -6506,7 +6462,7 @@
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
